--- a/data_processing/Historical Composition IBEX35.xlsx
+++ b/data_processing/Historical Composition IBEX35.xlsx
@@ -5,7 +5,9 @@
   <sheets>
     <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Hoja 1'!$A$1:$C$170</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
@@ -403,7 +405,7 @@
     <t>TRE</t>
   </si>
   <si>
-    <t>OHL</t>
+    <t>OHLA</t>
   </si>
   <si>
     <t>MTS</t>
@@ -821,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -832,7 +834,7 @@
         <v>37774.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -843,7 +845,7 @@
         <v>33420.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -854,7 +856,7 @@
         <v>33420.0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -865,7 +867,7 @@
         <v>34337.0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -876,7 +878,7 @@
         <v>36556.0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -885,7 +887,7 @@
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -896,7 +898,7 @@
         <v>35887.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -907,7 +909,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -918,7 +920,7 @@
         <v>33786.0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -929,7 +931,7 @@
         <v>33420.0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -940,7 +942,7 @@
         <v>37012.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -951,7 +953,7 @@
         <v>37970.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -962,7 +964,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -973,7 +975,7 @@
         <v>41631.0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -984,7 +986,7 @@
         <v>35977.0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -995,7 +997,7 @@
         <v>33673.0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1006,7 +1008,7 @@
         <v>33512.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -1026,7 +1028,7 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1039,7 @@
         <v>36710.0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -1048,7 +1050,7 @@
         <v>42893.0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1057,7 +1059,7 @@
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1068,7 +1070,7 @@
         <v>36269.0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1079,7 +1081,7 @@
         <v>36164.0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1090,7 +1092,7 @@
         <v>36528.0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1099,7 +1101,7 @@
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1110,7 +1112,7 @@
         <v>39918.0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>36528.0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1132,7 +1134,7 @@
         <v>33973.0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1143,7 +1145,7 @@
         <v>36893.0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1154,7 +1156,7 @@
         <v>34882.0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1165,7 +1167,7 @@
         <v>35432.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>33973.0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>35583.0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>33786.0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>35612.0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>36991.0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -1231,7 +1233,7 @@
         <v>33512.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -1253,7 +1255,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
@@ -1264,7 +1266,7 @@
         <v>33973.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>33786.0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="1">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -1286,7 +1288,7 @@
         <v>33786.0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="1">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>36269.0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="1">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -1308,7 +1310,7 @@
         <v>41631.0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="1">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>42569.0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>36801.0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>33973.0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="1">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>35977.0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="1">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>36710.0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>34151.0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="1">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>34701.0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -1396,7 +1398,7 @@
         <v>34701.0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="1">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>34337.0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="1">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -1418,7 +1420,7 @@
         <v>36556.0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="1">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>34516.0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="1">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -1440,7 +1442,7 @@
         <v>34882.0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="1">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>36801.0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="1">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
@@ -1462,7 +1464,7 @@
         <v>35432.0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="1">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -1473,7 +1475,7 @@
         <v>34882.0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="1">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -1484,7 +1486,7 @@
         <v>36893.0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="1">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>36342.0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="1">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -1506,7 +1508,7 @@
         <v>35066.0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="1">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
@@ -1517,7 +1519,7 @@
         <v>35612.0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="1">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -1528,7 +1530,7 @@
         <v>37623.0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="1">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>35704.0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="1">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
@@ -1550,7 +1552,7 @@
         <v>35612.0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="1">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>36164.0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="1">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
@@ -1572,7 +1574,7 @@
         <v>36164.0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="1">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
@@ -1583,7 +1585,7 @@
         <v>36528.0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="1">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
@@ -1594,7 +1596,7 @@
         <v>36528.0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="1">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
@@ -1603,7 +1605,7 @@
       </c>
       <c r="C73" s="6"/>
     </row>
-    <row r="74">
+    <row r="74" hidden="1">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
@@ -1614,7 +1616,7 @@
         <v>37296.0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="1">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
@@ -1625,7 +1627,7 @@
         <v>37438.0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="1">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>37623.0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="1">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
@@ -1647,7 +1649,7 @@
         <v>42177.0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="1">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>38534.0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="1">
       <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>37196.0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="1">
       <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
@@ -1680,7 +1682,7 @@
         <v>36342.0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="1">
       <c r="A81" s="2" t="s">
         <v>82</v>
       </c>
@@ -1689,7 +1691,7 @@
       </c>
       <c r="C81" s="6"/>
     </row>
-    <row r="82">
+    <row r="82" hidden="1">
       <c r="A82" s="2" t="s">
         <v>83</v>
       </c>
@@ -1698,7 +1700,7 @@
       </c>
       <c r="C82" s="6"/>
     </row>
-    <row r="83">
+    <row r="83" hidden="1">
       <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>38531.0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="1">
       <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
@@ -1720,7 +1722,7 @@
         <v>39580.0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="1">
       <c r="A85" s="2" t="s">
         <v>86</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>38923.0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="1">
       <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>39482.0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="1">
       <c r="A87" s="2" t="s">
         <v>88</v>
       </c>
@@ -1751,7 +1753,7 @@
       </c>
       <c r="C87" s="6"/>
     </row>
-    <row r="88">
+    <row r="88" hidden="1">
       <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>37826.0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="1">
       <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>38355.0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="1">
       <c r="A90" s="2" t="s">
         <v>91</v>
       </c>
@@ -1784,7 +1786,7 @@
         <v>38355.0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="1">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>37620.0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="1">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
@@ -1806,7 +1808,7 @@
         <v>37803.0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="1">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>38923.0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="1">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>37074.0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="1">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
@@ -1839,7 +1841,7 @@
         <v>41276.0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="1">
       <c r="A96" s="2" t="s">
         <v>97</v>
       </c>
@@ -1850,7 +1852,7 @@
         <v>43283.0</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="1">
       <c r="A97" s="2" t="s">
         <v>98</v>
       </c>
@@ -1859,7 +1861,7 @@
       </c>
       <c r="C97" s="6"/>
     </row>
-    <row r="98">
+    <row r="98" hidden="1">
       <c r="A98" s="2" t="s">
         <v>99</v>
       </c>
@@ -1868,7 +1870,7 @@
       </c>
       <c r="C98" s="6"/>
     </row>
-    <row r="99">
+    <row r="99" hidden="1">
       <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
@@ -1879,7 +1881,7 @@
         <v>38904.0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="1">
       <c r="A100" s="2" t="s">
         <v>101</v>
       </c>
@@ -1890,7 +1892,7 @@
         <v>40564.0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="1">
       <c r="A101" s="2" t="s">
         <v>102</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>39265.0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="1">
       <c r="A102" s="2" t="s">
         <v>103</v>
       </c>
@@ -1912,7 +1914,7 @@
         <v>37774.0</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="1">
       <c r="A103" s="2" t="s">
         <v>104</v>
       </c>
@@ -1921,7 +1923,7 @@
       </c>
       <c r="C103" s="6"/>
     </row>
-    <row r="104">
+    <row r="104" hidden="1">
       <c r="A104" s="2" t="s">
         <v>105</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>43229.0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="1">
       <c r="A105" s="2" t="s">
         <v>106</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>38169.0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="1">
       <c r="A106" s="2" t="s">
         <v>107</v>
       </c>
@@ -1954,7 +1956,7 @@
         <v>38719.0</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="1">
       <c r="A107" s="2" t="s">
         <v>108</v>
       </c>
@@ -1965,7 +1967,7 @@
         <v>37988.0</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="1">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
@@ -1976,7 +1978,7 @@
         <v>38534.0</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="1">
       <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
@@ -1987,7 +1989,7 @@
         <v>39084.0</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="1">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
@@ -1996,7 +1998,7 @@
       </c>
       <c r="C110" s="6"/>
     </row>
-    <row r="111">
+    <row r="111" hidden="1">
       <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
@@ -2007,7 +2009,7 @@
         <v>41548.0</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="1">
       <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
@@ -2018,7 +2020,7 @@
         <v>44004.0</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="1">
       <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
@@ -2029,7 +2031,7 @@
         <v>44725.0</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="1">
       <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
@@ -2040,7 +2042,7 @@
         <v>40154.0</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="1">
       <c r="A115" s="2" t="s">
         <v>115</v>
       </c>
@@ -2051,7 +2053,7 @@
         <v>39449.0</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="1">
       <c r="A116" s="2" t="s">
         <v>116</v>
       </c>
@@ -2062,7 +2064,7 @@
         <v>38901.0</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="1">
       <c r="A117" s="2" t="s">
         <v>117</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>39150.0</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="1">
       <c r="A118" s="2" t="s">
         <v>118</v>
       </c>
@@ -2082,7 +2084,7 @@
       </c>
       <c r="C118" s="6"/>
     </row>
-    <row r="119">
+    <row r="119" hidden="1">
       <c r="A119" s="2" t="s">
         <v>119</v>
       </c>
@@ -2093,7 +2095,7 @@
         <v>40546.0</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="1">
       <c r="A120" s="2" t="s">
         <v>120</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>39449.0</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="1">
       <c r="A121" s="2" t="s">
         <v>121</v>
       </c>
@@ -2115,7 +2117,7 @@
         <v>39482.0</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="1">
       <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
@@ -2126,7 +2128,7 @@
         <v>39212.0</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="1">
       <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
@@ -2137,7 +2139,7 @@
         <v>39551.0</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="1">
       <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
@@ -2148,7 +2150,7 @@
         <v>42177.0</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" hidden="1">
       <c r="A125" s="2" t="s">
         <v>125</v>
       </c>
@@ -2157,7 +2159,7 @@
       </c>
       <c r="C125" s="6"/>
     </row>
-    <row r="126">
+    <row r="126" hidden="1">
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
@@ -2168,7 +2170,7 @@
         <v>41208.0</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" hidden="1">
       <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
@@ -2179,7 +2181,7 @@
         <v>40735.0</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="1">
       <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
@@ -2190,7 +2192,7 @@
         <v>40725.0</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="1">
       <c r="A129" s="2" t="s">
         <v>129</v>
       </c>
@@ -2212,7 +2214,7 @@
         <v>42542.0</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" hidden="1">
       <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
@@ -2221,7 +2223,7 @@
       </c>
       <c r="C131" s="6"/>
     </row>
-    <row r="132">
+    <row r="132" hidden="1">
       <c r="A132" s="2" t="s">
         <v>132</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>40385.0</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" hidden="1">
       <c r="A133" s="2" t="s">
         <v>133</v>
       </c>
@@ -2243,7 +2245,7 @@
         <v>41031.0</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="1">
       <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
@@ -2252,7 +2254,7 @@
       </c>
       <c r="C134" s="6"/>
     </row>
-    <row r="135">
+    <row r="135" hidden="1">
       <c r="A135" s="2" t="s">
         <v>135</v>
       </c>
@@ -2261,7 +2263,7 @@
       </c>
       <c r="C135" s="6"/>
     </row>
-    <row r="136">
+    <row r="136" hidden="1">
       <c r="A136" s="2" t="s">
         <v>136</v>
       </c>
@@ -2270,7 +2272,7 @@
       </c>
       <c r="C136" s="6"/>
     </row>
-    <row r="137">
+    <row r="137" hidden="1">
       <c r="A137" s="2" t="s">
         <v>137</v>
       </c>
@@ -2281,7 +2283,7 @@
         <v>41276.0</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="1">
       <c r="A138" s="2" t="s">
         <v>138</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>43458.0</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="1">
       <c r="A139" s="2" t="s">
         <v>139</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>41456.0</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="1">
       <c r="A140" s="2" t="s">
         <v>140</v>
       </c>
@@ -2314,7 +2316,7 @@
         <v>41995.0</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" hidden="1">
       <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>42179.0</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" hidden="1">
       <c r="A142" s="2" t="s">
         <v>142</v>
       </c>
@@ -2336,7 +2338,7 @@
         <v>41813.0</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="1">
       <c r="A143" s="2" t="s">
         <v>143</v>
       </c>
@@ -2347,7 +2349,7 @@
         <v>42542.0</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" hidden="1">
       <c r="A144" s="2" t="s">
         <v>144</v>
       </c>
@@ -2358,7 +2360,7 @@
         <v>44284.0</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" hidden="1">
       <c r="A145" s="2" t="s">
         <v>145</v>
       </c>
@@ -2369,7 +2371,7 @@
         <v>42940.0</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" hidden="1">
       <c r="A146" s="2" t="s">
         <v>146</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>42335.0</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" hidden="1">
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
@@ -2389,7 +2391,7 @@
       </c>
       <c r="C147" s="6"/>
     </row>
-    <row r="148">
+    <row r="148" hidden="1">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -2398,7 +2400,7 @@
       </c>
       <c r="C148" s="6"/>
     </row>
-    <row r="149">
+    <row r="149" hidden="1">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -2407,7 +2409,7 @@
       </c>
       <c r="C149" s="6"/>
     </row>
-    <row r="150">
+    <row r="150" hidden="1">
       <c r="A150" s="2" t="s">
         <v>150</v>
       </c>
@@ -2416,7 +2418,7 @@
       </c>
       <c r="C150" s="6"/>
     </row>
-    <row r="151">
+    <row r="151" hidden="1">
       <c r="A151" s="2" t="s">
         <v>151</v>
       </c>
@@ -2425,7 +2427,7 @@
       </c>
       <c r="C151" s="6"/>
     </row>
-    <row r="152">
+    <row r="152" hidden="1">
       <c r="A152" s="2" t="s">
         <v>152</v>
       </c>
@@ -2434,7 +2436,7 @@
       </c>
       <c r="C152" s="6"/>
     </row>
-    <row r="153">
+    <row r="153" hidden="1">
       <c r="A153" s="2" t="s">
         <v>153</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>44550.0</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" hidden="1">
       <c r="A154" s="2" t="s">
         <v>154</v>
       </c>
@@ -2454,7 +2456,7 @@
       </c>
       <c r="C154" s="6"/>
     </row>
-    <row r="155">
+    <row r="155" hidden="1">
       <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
@@ -2463,7 +2465,7 @@
       </c>
       <c r="C155" s="6"/>
     </row>
-    <row r="156">
+    <row r="156" hidden="1">
       <c r="A156" s="2" t="s">
         <v>156</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>44909.0</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" hidden="1">
       <c r="A157" s="2" t="s">
         <v>157</v>
       </c>
@@ -2483,7 +2485,7 @@
       </c>
       <c r="C157" s="6"/>
     </row>
-    <row r="158">
+    <row r="158" hidden="1">
       <c r="A158" s="2" t="s">
         <v>158</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>44732.0</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="1">
       <c r="A159" s="2" t="s">
         <v>159</v>
       </c>
@@ -2505,7 +2507,7 @@
         <v>44095.0</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="1">
       <c r="A160" s="2" t="s">
         <v>160</v>
       </c>
@@ -2516,7 +2518,7 @@
         <v>44088.0</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" hidden="1">
       <c r="A161" s="2" t="s">
         <v>161</v>
       </c>
@@ -2527,7 +2529,7 @@
         <v>44732.0</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" hidden="1">
       <c r="A162" s="2" t="s">
         <v>162</v>
       </c>
@@ -2538,7 +2540,7 @@
         <v>44914.0</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" hidden="1">
       <c r="A163" s="2" t="s">
         <v>163</v>
       </c>
@@ -2547,7 +2549,7 @@
       </c>
       <c r="C163" s="6"/>
     </row>
-    <row r="164">
+    <row r="164" hidden="1">
       <c r="A164" s="2" t="s">
         <v>164</v>
       </c>
@@ -2556,7 +2558,7 @@
       </c>
       <c r="C164" s="6"/>
     </row>
-    <row r="165">
+    <row r="165" hidden="1">
       <c r="A165" s="2" t="s">
         <v>165</v>
       </c>
@@ -2565,7 +2567,7 @@
       </c>
       <c r="C165" s="6"/>
     </row>
-    <row r="166">
+    <row r="166" hidden="1">
       <c r="A166" s="2" t="s">
         <v>166</v>
       </c>
@@ -2574,7 +2576,7 @@
       </c>
       <c r="C166" s="6"/>
     </row>
-    <row r="167">
+    <row r="167" hidden="1">
       <c r="A167" s="2" t="s">
         <v>167</v>
       </c>
@@ -2583,7 +2585,7 @@
       </c>
       <c r="C167" s="6"/>
     </row>
-    <row r="168">
+    <row r="168" hidden="1">
       <c r="A168" s="2" t="s">
         <v>168</v>
       </c>
@@ -2592,7 +2594,7 @@
       </c>
       <c r="C168" s="6"/>
     </row>
-    <row r="169">
+    <row r="169" hidden="1">
       <c r="A169" s="2" t="s">
         <v>169</v>
       </c>
@@ -2601,7 +2603,7 @@
       </c>
       <c r="C169" s="6"/>
     </row>
-    <row r="170">
+    <row r="170" hidden="1">
       <c r="A170" s="2" t="s">
         <v>68</v>
       </c>
@@ -2611,6 +2613,13 @@
       <c r="C170" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$C$170">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="OHLA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_processing/Historical Composition IBEX35.xlsx
+++ b/data_processing/Historical Composition IBEX35.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Activo</t>
   </si>
@@ -342,6 +342,9 @@
     <t>TRR_1</t>
   </si>
   <si>
+    <t>BTO_1</t>
+  </si>
+  <si>
     <t>PRS_1</t>
   </si>
   <si>
@@ -372,7 +375,7 @@
     <t>MAP_2</t>
   </si>
   <si>
-    <t>BTO_1</t>
+    <t>BTO_2</t>
   </si>
   <si>
     <t>NHH_2</t>
@@ -523,6 +526,9 @@
   </si>
   <si>
     <t>LOG</t>
+  </si>
+  <si>
+    <t>UNI_1</t>
   </si>
 </sst>
 </file>
@@ -823,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -834,7 +840,7 @@
         <v>37774.0</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -845,7 +851,7 @@
         <v>33420.0</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -856,7 +862,7 @@
         <v>33420.0</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -867,7 +873,7 @@
         <v>34337.0</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -878,7 +884,7 @@
         <v>36556.0</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -887,7 +893,7 @@
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -898,7 +904,7 @@
         <v>35887.0</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -909,7 +915,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -920,7 +926,7 @@
         <v>33786.0</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -931,7 +937,7 @@
         <v>33420.0</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -942,7 +948,7 @@
         <v>37012.0</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -953,7 +959,7 @@
         <v>37970.0</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -964,7 +970,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -975,7 +981,7 @@
         <v>41631.0</v>
       </c>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -986,7 +992,7 @@
         <v>35977.0</v>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>33673.0</v>
       </c>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>33512.0</v>
       </c>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -1028,7 +1034,7 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" hidden="1">
+    <row r="21">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>36710.0</v>
       </c>
     </row>
-    <row r="22" hidden="1">
+    <row r="22">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>42893.0</v>
       </c>
     </row>
-    <row r="23" hidden="1">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1059,7 +1065,7 @@
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>36269.0</v>
       </c>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>36164.0</v>
       </c>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>36528.0</v>
       </c>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1101,7 +1107,7 @@
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>39918.0</v>
       </c>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>36528.0</v>
       </c>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>33973.0</v>
       </c>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>36893.0</v>
       </c>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>34882.0</v>
       </c>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>35432.0</v>
       </c>
     </row>
-    <row r="34" hidden="1">
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>33973.0</v>
       </c>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>35583.0</v>
       </c>
     </row>
-    <row r="36" hidden="1">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>33786.0</v>
       </c>
     </row>
-    <row r="37" hidden="1">
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>35612.0</v>
       </c>
     </row>
-    <row r="38" hidden="1">
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>36991.0</v>
       </c>
     </row>
-    <row r="39" hidden="1">
+    <row r="39">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>33512.0</v>
       </c>
     </row>
-    <row r="40" hidden="1">
+    <row r="40">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="41" hidden="1">
+    <row r="41">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="42" hidden="1">
+    <row r="42">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>33973.0</v>
       </c>
     </row>
-    <row r="43" hidden="1">
+    <row r="43">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>33786.0</v>
       </c>
     </row>
-    <row r="44" hidden="1">
+    <row r="44">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>33786.0</v>
       </c>
     </row>
-    <row r="45" hidden="1">
+    <row r="45">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>36269.0</v>
       </c>
     </row>
-    <row r="46" hidden="1">
+    <row r="46">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>41631.0</v>
       </c>
     </row>
-    <row r="47" hidden="1">
+    <row r="47">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>42569.0</v>
       </c>
     </row>
-    <row r="48" hidden="1">
+    <row r="48">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>36801.0</v>
       </c>
     </row>
-    <row r="49" hidden="1">
+    <row r="49">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>33973.0</v>
       </c>
     </row>
-    <row r="50" hidden="1">
+    <row r="50">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>35977.0</v>
       </c>
     </row>
-    <row r="51" hidden="1">
+    <row r="51">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>36710.0</v>
       </c>
     </row>
-    <row r="52" hidden="1">
+    <row r="52">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>34151.0</v>
       </c>
     </row>
-    <row r="53" hidden="1">
+    <row r="53">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>34701.0</v>
       </c>
     </row>
-    <row r="54" hidden="1">
+    <row r="54">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>34701.0</v>
       </c>
     </row>
-    <row r="55" hidden="1">
+    <row r="55">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>34337.0</v>
       </c>
     </row>
-    <row r="56" hidden="1">
+    <row r="56">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>36556.0</v>
       </c>
     </row>
-    <row r="57" hidden="1">
+    <row r="57">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>34516.0</v>
       </c>
     </row>
-    <row r="58" hidden="1">
+    <row r="58">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>34882.0</v>
       </c>
     </row>
-    <row r="59" hidden="1">
+    <row r="59">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>36801.0</v>
       </c>
     </row>
-    <row r="60" hidden="1">
+    <row r="60">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>35432.0</v>
       </c>
     </row>
-    <row r="61" hidden="1">
+    <row r="61">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>34882.0</v>
       </c>
     </row>
-    <row r="62" hidden="1">
+    <row r="62">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>36893.0</v>
       </c>
     </row>
-    <row r="63" hidden="1">
+    <row r="63">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>36342.0</v>
       </c>
     </row>
-    <row r="64" hidden="1">
+    <row r="64">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>35066.0</v>
       </c>
     </row>
-    <row r="65" hidden="1">
+    <row r="65">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>35612.0</v>
       </c>
     </row>
-    <row r="66" hidden="1">
+    <row r="66">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>37623.0</v>
       </c>
     </row>
-    <row r="67" hidden="1">
+    <row r="67">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>35704.0</v>
       </c>
     </row>
-    <row r="68" hidden="1">
+    <row r="68">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>35612.0</v>
       </c>
     </row>
-    <row r="69" hidden="1">
+    <row r="69">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>36164.0</v>
       </c>
     </row>
-    <row r="70" hidden="1">
+    <row r="70">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>36164.0</v>
       </c>
     </row>
-    <row r="71" hidden="1">
+    <row r="71">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>36528.0</v>
       </c>
     </row>
-    <row r="72" hidden="1">
+    <row r="72">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>36528.0</v>
       </c>
     </row>
-    <row r="73" hidden="1">
+    <row r="73">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
@@ -1605,7 +1611,7 @@
       </c>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" hidden="1">
+    <row r="74">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>37296.0</v>
       </c>
     </row>
-    <row r="75" hidden="1">
+    <row r="75">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>37438.0</v>
       </c>
     </row>
-    <row r="76" hidden="1">
+    <row r="76">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>37623.0</v>
       </c>
     </row>
-    <row r="77" hidden="1">
+    <row r="77">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>42177.0</v>
       </c>
     </row>
-    <row r="78" hidden="1">
+    <row r="78">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
@@ -1660,7 +1666,7 @@
         <v>38534.0</v>
       </c>
     </row>
-    <row r="79" hidden="1">
+    <row r="79">
       <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>37196.0</v>
       </c>
     </row>
-    <row r="80" hidden="1">
+    <row r="80">
       <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
@@ -1682,7 +1688,7 @@
         <v>36342.0</v>
       </c>
     </row>
-    <row r="81" hidden="1">
+    <row r="81">
       <c r="A81" s="2" t="s">
         <v>82</v>
       </c>
@@ -1691,7 +1697,7 @@
       </c>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" hidden="1">
+    <row r="82">
       <c r="A82" s="2" t="s">
         <v>83</v>
       </c>
@@ -1700,7 +1706,7 @@
       </c>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" hidden="1">
+    <row r="83">
       <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
@@ -1711,7 +1717,7 @@
         <v>38531.0</v>
       </c>
     </row>
-    <row r="84" hidden="1">
+    <row r="84">
       <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>39580.0</v>
       </c>
     </row>
-    <row r="85" hidden="1">
+    <row r="85">
       <c r="A85" s="2" t="s">
         <v>86</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>38923.0</v>
       </c>
     </row>
-    <row r="86" hidden="1">
+    <row r="86">
       <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
@@ -1744,7 +1750,7 @@
         <v>39482.0</v>
       </c>
     </row>
-    <row r="87" hidden="1">
+    <row r="87">
       <c r="A87" s="2" t="s">
         <v>88</v>
       </c>
@@ -1753,7 +1759,7 @@
       </c>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" hidden="1">
+    <row r="88">
       <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>37826.0</v>
       </c>
     </row>
-    <row r="89" hidden="1">
+    <row r="89">
       <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>38355.0</v>
       </c>
     </row>
-    <row r="90" hidden="1">
+    <row r="90">
       <c r="A90" s="2" t="s">
         <v>91</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>38355.0</v>
       </c>
     </row>
-    <row r="91" hidden="1">
+    <row r="91">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>37620.0</v>
       </c>
     </row>
-    <row r="92" hidden="1">
+    <row r="92">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>37803.0</v>
       </c>
     </row>
-    <row r="93" hidden="1">
+    <row r="93">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>38923.0</v>
       </c>
     </row>
-    <row r="94" hidden="1">
+    <row r="94">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>37074.0</v>
       </c>
     </row>
-    <row r="95" hidden="1">
+    <row r="95">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>41276.0</v>
       </c>
     </row>
-    <row r="96" hidden="1">
+    <row r="96">
       <c r="A96" s="2" t="s">
         <v>97</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>43283.0</v>
       </c>
     </row>
-    <row r="97" hidden="1">
+    <row r="97">
       <c r="A97" s="2" t="s">
         <v>98</v>
       </c>
@@ -1861,7 +1867,7 @@
       </c>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" hidden="1">
+    <row r="98">
       <c r="A98" s="2" t="s">
         <v>99</v>
       </c>
@@ -1870,7 +1876,7 @@
       </c>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" hidden="1">
+    <row r="99">
       <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
@@ -1881,7 +1887,7 @@
         <v>38904.0</v>
       </c>
     </row>
-    <row r="100" hidden="1">
+    <row r="100">
       <c r="A100" s="2" t="s">
         <v>101</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>40564.0</v>
       </c>
     </row>
-    <row r="101" hidden="1">
+    <row r="101">
       <c r="A101" s="2" t="s">
         <v>102</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>39265.0</v>
       </c>
     </row>
-    <row r="102" hidden="1">
+    <row r="102">
       <c r="A102" s="2" t="s">
         <v>103</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>37774.0</v>
       </c>
     </row>
-    <row r="103" hidden="1">
+    <row r="103">
       <c r="A103" s="2" t="s">
         <v>104</v>
       </c>
@@ -1923,7 +1929,7 @@
       </c>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" hidden="1">
+    <row r="104">
       <c r="A104" s="2" t="s">
         <v>105</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>43229.0</v>
       </c>
     </row>
-    <row r="105" hidden="1">
+    <row r="105">
       <c r="A105" s="2" t="s">
         <v>106</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>38169.0</v>
       </c>
     </row>
-    <row r="106" hidden="1">
+    <row r="106">
       <c r="A106" s="2" t="s">
         <v>107</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>38719.0</v>
       </c>
     </row>
-    <row r="107" hidden="1">
+    <row r="107">
       <c r="A107" s="2" t="s">
         <v>108</v>
       </c>
@@ -1967,9 +1973,9 @@
         <v>37988.0</v>
       </c>
     </row>
-    <row r="108" hidden="1">
+    <row r="108">
       <c r="A108" s="2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B108" s="3">
         <v>37988.0</v>
@@ -1978,9 +1984,9 @@
         <v>38534.0</v>
       </c>
     </row>
-    <row r="109" hidden="1">
+    <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109" s="3">
         <v>37988.0</v>
@@ -1989,18 +1995,18 @@
         <v>39084.0</v>
       </c>
     </row>
-    <row r="110" hidden="1">
+    <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110" s="3">
         <v>38169.0</v>
       </c>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" hidden="1">
+    <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B111" s="3">
         <v>38355.0</v>
@@ -2009,9 +2015,9 @@
         <v>41548.0</v>
       </c>
     </row>
-    <row r="112" hidden="1">
+    <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B112" s="3">
         <v>38355.0</v>
@@ -2020,9 +2026,9 @@
         <v>44004.0</v>
       </c>
     </row>
-    <row r="113" hidden="1">
+    <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113" s="3">
         <v>38534.0</v>
@@ -2031,9 +2037,9 @@
         <v>44725.0</v>
       </c>
     </row>
-    <row r="114" hidden="1">
+    <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114" s="3">
         <v>38534.0</v>
@@ -2042,9 +2048,9 @@
         <v>40154.0</v>
       </c>
     </row>
-    <row r="115" hidden="1">
+    <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B115" s="3">
         <v>38541.0</v>
@@ -2053,9 +2059,9 @@
         <v>39449.0</v>
       </c>
     </row>
-    <row r="116" hidden="1">
+    <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116" s="3">
         <v>38719.0</v>
@@ -2064,9 +2070,9 @@
         <v>38901.0</v>
       </c>
     </row>
-    <row r="117" hidden="1">
+    <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117" s="3">
         <v>38901.0</v>
@@ -2075,18 +2081,18 @@
         <v>39150.0</v>
       </c>
     </row>
-    <row r="118" hidden="1">
+    <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118" s="3">
         <v>38923.0</v>
       </c>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" hidden="1">
+    <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119" s="3">
         <v>38930.0</v>
@@ -2095,9 +2101,9 @@
         <v>40546.0</v>
       </c>
     </row>
-    <row r="120" hidden="1">
+    <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120" s="3">
         <v>38946.0</v>
@@ -2106,9 +2112,9 @@
         <v>39449.0</v>
       </c>
     </row>
-    <row r="121" hidden="1">
+    <row r="121">
       <c r="A121" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121" s="3">
         <v>39084.0</v>
@@ -2117,9 +2123,9 @@
         <v>39482.0</v>
       </c>
     </row>
-    <row r="122" hidden="1">
+    <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122" s="3">
         <v>39162.0</v>
@@ -2128,9 +2134,9 @@
         <v>39212.0</v>
       </c>
     </row>
-    <row r="123" hidden="1">
+    <row r="123">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B123" s="3">
         <v>39212.0</v>
@@ -2139,9 +2145,9 @@
         <v>39551.0</v>
       </c>
     </row>
-    <row r="124" hidden="1">
+    <row r="124">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124" s="3">
         <v>39265.0</v>
@@ -2150,18 +2156,18 @@
         <v>42177.0</v>
       </c>
     </row>
-    <row r="125" hidden="1">
+    <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B125" s="3">
         <v>39449.0</v>
       </c>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" hidden="1">
+    <row r="126">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B126" s="3">
         <v>39449.0</v>
@@ -2170,9 +2176,9 @@
         <v>41208.0</v>
       </c>
     </row>
-    <row r="127" hidden="1">
+    <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B127" s="3">
         <v>39482.0</v>
@@ -2181,9 +2187,9 @@
         <v>40735.0</v>
       </c>
     </row>
-    <row r="128" hidden="1">
+    <row r="128">
       <c r="A128" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B128" s="3">
         <v>39482.0</v>
@@ -2192,9 +2198,9 @@
         <v>40725.0</v>
       </c>
     </row>
-    <row r="129" hidden="1">
+    <row r="129">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B129" s="3">
         <v>39551.0</v>
@@ -2205,7 +2211,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130" s="3">
         <v>39630.0</v>
@@ -2214,18 +2220,18 @@
         <v>42542.0</v>
       </c>
     </row>
-    <row r="131" hidden="1">
+    <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131" s="3">
         <v>39938.0</v>
       </c>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" hidden="1">
+    <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132" s="3">
         <v>40182.0</v>
@@ -2234,9 +2240,9 @@
         <v>40385.0</v>
       </c>
     </row>
-    <row r="133" hidden="1">
+    <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133" s="3">
         <v>40385.0</v>
@@ -2245,36 +2251,36 @@
         <v>41031.0</v>
       </c>
     </row>
-    <row r="134" hidden="1">
+    <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134" s="3">
         <v>40546.0</v>
       </c>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" hidden="1">
+    <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135" s="3">
         <v>40634.0</v>
       </c>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" hidden="1">
+    <row r="136">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" s="3">
         <v>40725.0</v>
       </c>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" hidden="1">
+    <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137" s="3">
         <v>40819.0</v>
@@ -2283,9 +2289,9 @@
         <v>41276.0</v>
       </c>
     </row>
-    <row r="138" hidden="1">
+    <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B138" s="3">
         <v>40910.0</v>
@@ -2294,9 +2300,9 @@
         <v>43458.0</v>
       </c>
     </row>
-    <row r="139" hidden="1">
+    <row r="139">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B139" s="7">
         <v>41208.0</v>
@@ -2305,9 +2311,9 @@
         <v>41456.0</v>
       </c>
     </row>
-    <row r="140" hidden="1">
+    <row r="140">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B140" s="3">
         <v>41276.0</v>
@@ -2316,9 +2322,9 @@
         <v>41995.0</v>
       </c>
     </row>
-    <row r="141" hidden="1">
+    <row r="141">
       <c r="A141" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B141" s="3">
         <v>41387.0</v>
@@ -2327,9 +2333,9 @@
         <v>42179.0</v>
       </c>
     </row>
-    <row r="142" hidden="1">
+    <row r="142">
       <c r="A142" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B142" s="3">
         <v>41456.0</v>
@@ -2338,9 +2344,9 @@
         <v>41813.0</v>
       </c>
     </row>
-    <row r="143" hidden="1">
+    <row r="143">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143" s="3">
         <v>41548.0</v>
@@ -2349,9 +2355,9 @@
         <v>42542.0</v>
       </c>
     </row>
-    <row r="144" hidden="1">
+    <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144" s="7">
         <v>41631.0</v>
@@ -2360,9 +2366,9 @@
         <v>44284.0</v>
       </c>
     </row>
-    <row r="145" hidden="1">
+    <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B145" s="7">
         <v>41631.0</v>
@@ -2371,9 +2377,9 @@
         <v>42940.0</v>
       </c>
     </row>
-    <row r="146" hidden="1">
+    <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B146" s="3">
         <v>41813.0</v>
@@ -2382,63 +2388,63 @@
         <v>42335.0</v>
       </c>
     </row>
-    <row r="147" hidden="1">
+    <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B147" s="7">
         <v>41995.0</v>
       </c>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" hidden="1">
+    <row r="148">
       <c r="A148" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B148" s="3">
         <v>42177.0</v>
       </c>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" hidden="1">
+    <row r="149">
       <c r="A149" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B149" s="3">
         <v>42177.0</v>
       </c>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" hidden="1">
+    <row r="150">
       <c r="A150" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B150" s="3">
         <v>42205.0</v>
       </c>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" hidden="1">
+    <row r="151">
       <c r="A151" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B151" s="7">
         <v>42359.0</v>
       </c>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" hidden="1">
+    <row r="152">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152" s="3">
         <v>42542.0</v>
       </c>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" hidden="1">
+    <row r="153">
       <c r="A153" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B153" s="3">
         <v>42542.0</v>
@@ -2447,27 +2453,27 @@
         <v>44550.0</v>
       </c>
     </row>
-    <row r="154" hidden="1">
+    <row r="154">
       <c r="A154" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B154" s="3">
         <v>42590.0</v>
       </c>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" hidden="1">
+    <row r="155">
       <c r="A155" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B155" s="3">
         <v>42902.0</v>
       </c>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" hidden="1">
+    <row r="156">
       <c r="A156" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B156" s="3">
         <v>42940.0</v>
@@ -2476,18 +2482,18 @@
         <v>44909.0</v>
       </c>
     </row>
-    <row r="157" hidden="1">
+    <row r="157">
       <c r="A157" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B157" s="3">
         <v>43283.0</v>
       </c>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" hidden="1">
+    <row r="158">
       <c r="A158" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B158" s="3">
         <v>43269.0</v>
@@ -2496,9 +2502,9 @@
         <v>44732.0</v>
       </c>
     </row>
-    <row r="159" hidden="1">
+    <row r="159">
       <c r="A159" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B159" s="7">
         <v>43458.0</v>
@@ -2507,9 +2513,9 @@
         <v>44095.0</v>
       </c>
     </row>
-    <row r="160" hidden="1">
+    <row r="160">
       <c r="A160" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B160" s="3">
         <v>43640.0</v>
@@ -2518,9 +2524,9 @@
         <v>44088.0</v>
       </c>
     </row>
-    <row r="161" hidden="1">
+    <row r="161">
       <c r="A161" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B161" s="3">
         <v>44004.0</v>
@@ -2529,9 +2535,9 @@
         <v>44732.0</v>
       </c>
     </row>
-    <row r="162" hidden="1">
+    <row r="162">
       <c r="A162" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B162" s="3">
         <v>44095.0</v>
@@ -2540,72 +2546,72 @@
         <v>44914.0</v>
       </c>
     </row>
-    <row r="163" hidden="1">
+    <row r="163">
       <c r="A163" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B163" s="7">
         <v>44123.0</v>
       </c>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" hidden="1">
+    <row r="164">
       <c r="A164" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B164" s="3">
         <v>44284.0</v>
       </c>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" hidden="1">
+    <row r="165">
       <c r="A165" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B165" s="7">
         <v>44550.0</v>
       </c>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" hidden="1">
+    <row r="166">
       <c r="A166" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B166" s="3">
         <v>44725.0</v>
       </c>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" hidden="1">
+    <row r="167">
       <c r="A167" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B167" s="3">
         <v>44732.0</v>
       </c>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" hidden="1">
+    <row r="168">
       <c r="A168" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B168" s="3">
         <v>44732.0</v>
       </c>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" hidden="1">
+    <row r="169">
       <c r="A169" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B169" s="7">
         <v>44914.0</v>
       </c>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" hidden="1">
+    <row r="170">
       <c r="A170" s="2" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="B170" s="7">
         <v>44922.0</v>
@@ -2613,13 +2619,7 @@
       <c r="C170" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$170">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="OHLA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$C$170"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_processing/Historical Composition IBEX35.xlsx
+++ b/data_processing/Historical Composition IBEX35.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Hoja 1'!$A$1:$C$170</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Hoja 1'!$A$1:$C$169</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>Activo</t>
   </si>
@@ -333,7 +333,7 @@
     <t>ABE</t>
   </si>
   <si>
-    <t>SYV</t>
+    <t>SCYR</t>
   </si>
   <si>
     <t>MAP_1</t>
@@ -351,7 +351,7 @@
     <t>SAB</t>
   </si>
   <si>
-    <t>SYV_1</t>
+    <t>SCYR_1</t>
   </si>
   <si>
     <t>TL5</t>
@@ -447,7 +447,7 @@
     <t>EBRO_1</t>
   </si>
   <si>
-    <t>SCYR</t>
+    <t>SCYR_2</t>
   </si>
   <si>
     <t>BKIA_1</t>
@@ -520,9 +520,6 @@
   </si>
   <si>
     <t>ANE</t>
-  </si>
-  <si>
-    <t>SCYR_1</t>
   </si>
   <si>
     <t>LOG</t>
@@ -840,7 +837,7 @@
         <v>37774.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -851,7 +848,7 @@
         <v>33420.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -904,7 +901,7 @@
         <v>35887.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -915,7 +912,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -926,7 +923,7 @@
         <v>33786.0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -959,7 +956,7 @@
         <v>37970.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -992,7 +989,7 @@
         <v>35977.0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1003,7 +1000,7 @@
         <v>33673.0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1011,7 @@
         <v>33512.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1126,7 @@
         <v>36528.0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1173,7 +1170,7 @@
         <v>35432.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1195,7 +1192,7 @@
         <v>35583.0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1228,7 +1225,7 @@
         <v>36991.0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -1239,7 +1236,7 @@
         <v>33512.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1250,7 +1247,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -1261,7 +1258,7 @@
         <v>33605.0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
@@ -1272,7 +1269,7 @@
         <v>33973.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>33786.0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="1">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -1338,7 +1335,7 @@
         <v>36801.0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -1371,7 +1368,7 @@
         <v>36710.0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -2012,7 +2009,7 @@
         <v>38355.0</v>
       </c>
       <c r="C111" s="3">
-        <v>41548.0</v>
+        <v>42542.0</v>
       </c>
     </row>
     <row r="112">
@@ -2349,11 +2346,9 @@
         <v>144</v>
       </c>
       <c r="B143" s="3">
-        <v>41548.0</v>
-      </c>
-      <c r="C143" s="3">
-        <v>42542.0</v>
-      </c>
+        <v>44732.0</v>
+      </c>
+      <c r="C143" s="6"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
@@ -2595,8 +2590,8 @@
       <c r="A168" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B168" s="3">
-        <v>44732.0</v>
+      <c r="B168" s="7">
+        <v>44914.0</v>
       </c>
       <c r="C168" s="6"/>
     </row>
@@ -2605,21 +2600,99 @@
         <v>170</v>
       </c>
       <c r="B169" s="7">
-        <v>44914.0</v>
+        <v>44922.0</v>
       </c>
       <c r="C169" s="6"/>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B170" s="7">
-        <v>44922.0</v>
-      </c>
-      <c r="C170" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$170"/>
+  <autoFilter ref="$A$1:$C$169">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="02/10/2000"/>
+        <filter val="01/05/2001"/>
+        <filter val="04/02/2008"/>
+        <filter val="07/06/2017"/>
+        <filter val="09/05/2018"/>
+        <filter val="07/12/2009"/>
+        <filter val="25/07/2006"/>
+        <filter val="29/03/2021"/>
+        <filter val="02/07/1995"/>
+        <filter val="18/07/2016"/>
+        <filter val="03/01/2011"/>
+        <filter val="20/06/2022"/>
+        <filter val="24/06/2019"/>
+        <filter val="02/07/2001"/>
+        <filter val="21/09/2020"/>
+        <filter val="13/04/2008"/>
+        <filter val="27/11/2015"/>
+        <filter val="10/05/2007"/>
+        <filter val="22/06/2020"/>
+        <filter val="14/12/2022"/>
+        <filter val="23/12/2013"/>
+        <filter val="15/04/2009"/>
+        <filter val="09/02/2002"/>
+        <filter val="15/12/2003"/>
+        <filter val="01/07/1997"/>
+        <filter val="01/07/1998"/>
+        <filter val="01/07/1999"/>
+        <filter val="23/06/2014"/>
+        <filter val="12/05/2008"/>
+        <filter val="03/01/1994"/>
+        <filter val="03/01/2005"/>
+        <filter val="03/07/2006"/>
+        <filter val="01/07/2011"/>
+        <filter val="01/07/2013"/>
+        <filter val="03/01/2000"/>
+        <filter val="10/04/2001"/>
+        <filter val="24/07/2003"/>
+        <filter val="19/04/1999"/>
+        <filter val="21/06/2016"/>
+        <filter val="14/09/2020"/>
+        <filter val="26/10/2012"/>
+        <filter val="28/06/2005"/>
+        <filter val="11/07/2011"/>
+        <filter val="26/07/2010"/>
+        <filter val="03/07/2000"/>
+        <filter val="02/07/2018"/>
+        <filter val="20/12/2021"/>
+        <filter val="02/01/2013"/>
+        <filter val="01/11/2001"/>
+        <filter val="01/07/2003"/>
+        <filter val="31/01/2000"/>
+        <filter val="01/07/2002"/>
+        <filter val="01/07/2005"/>
+        <filter val="01/07/1994"/>
+        <filter val="01/07/2004"/>
+        <filter val="24/07/2017"/>
+        <filter val="02/06/1997"/>
+        <filter val="22/12/2014"/>
+        <filter val="02/05/2012"/>
+        <filter val="24/12/2018"/>
+        <filter val="21/01/2011"/>
+        <filter val="30/12/2002"/>
+        <filter val="02/06/2003"/>
+        <filter val="24/06/2015"/>
+        <filter val="02/04/1998"/>
+        <filter val="02/07/2007"/>
+        <filter val="02/01/2001"/>
+        <filter val="19/12/2022"/>
+        <filter val="04/01/1999"/>
+        <filter val="02/01/2003"/>
+        <filter val="09/03/2007"/>
+        <filter val="02/01/2004"/>
+        <filter val="02/01/1995"/>
+        <filter val="01/10/1997"/>
+        <filter val="02/01/2006"/>
+        <filter val="02/01/1996"/>
+        <filter val="02/01/2007"/>
+        <filter val="02/01/1997"/>
+        <filter val="22/06/2015"/>
+        <filter val="02/01/2008"/>
+        <filter val="06/07/2006"/>
+        <filter val="13/06/2022"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>